--- a/data_year/zb/农业/瓜果类面积.xlsx
+++ b/data_year/zb/农业/瓜果类面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,357 +458,171 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2043.713</v>
+        <v>2227.25052363124</v>
       </c>
       <c r="C2" t="n">
-        <v>309.183</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>354.540919979976</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.5035492808415</v>
+      </c>
       <c r="E2" t="n">
-        <v>1625.352</v>
+        <v>1697.2378172611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2267.7</v>
+        <v>2200.94092964056</v>
       </c>
       <c r="C3" t="n">
-        <v>329.907</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>346.296389072781</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78.12119744022</v>
+      </c>
       <c r="E3" t="n">
-        <v>1822.33893333333</v>
+        <v>1669.79455910464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2354.88206666667</v>
+        <v>2156.81106514741</v>
       </c>
       <c r="C4" t="n">
-        <v>366.843266666667</v>
+        <v>333.913848067825</v>
       </c>
       <c r="D4" t="n">
-        <v>66.367</v>
+        <v>82.5971236652374</v>
       </c>
       <c r="E4" t="n">
-        <v>1846.8296</v>
+        <v>1631.33865977203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2353.96666666667</v>
+        <v>2174.70981214204</v>
       </c>
       <c r="C5" t="n">
-        <v>355.377333333333</v>
+        <v>336.231748458023</v>
       </c>
       <c r="D5" t="n">
-        <v>76.86166666666669</v>
+        <v>91.2690261781828</v>
       </c>
       <c r="E5" t="n">
-        <v>1836.26866666667</v>
+        <v>1641.58658543356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2146.76126666667</v>
+        <v>2164.95443985308</v>
       </c>
       <c r="C6" t="n">
-        <v>319.416</v>
+        <v>335.186239126463</v>
       </c>
       <c r="D6" t="n">
-        <v>82.872</v>
+        <v>94.8163566201253</v>
       </c>
       <c r="E6" t="n">
-        <v>1660.045</v>
+        <v>1633.89583005904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2207.73953333333</v>
+        <v>2194.31611137946</v>
       </c>
       <c r="C7" t="n">
-        <v>338.939666666667</v>
+        <v>345.563342614974</v>
       </c>
       <c r="D7" t="n">
-        <v>84.19573333333339</v>
+        <v>108.269739460109</v>
       </c>
       <c r="E7" t="n">
-        <v>1707.47826666667</v>
+        <v>1630.89239075351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2245.94626666667</v>
+        <v>2119.09849480408</v>
       </c>
       <c r="C8" t="n">
-        <v>346.421466666667</v>
+        <v>345.932324021333</v>
       </c>
       <c r="D8" t="n">
-        <v>79.25053333333329</v>
+        <v>102.387147898667</v>
       </c>
       <c r="E8" t="n">
-        <v>1752.61053333333</v>
+        <v>1515.06220677283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2159.54407102803</v>
+        <v>2112.87221134234</v>
       </c>
       <c r="C9" t="n">
-        <v>336.322718087078</v>
+        <v>348.822593794254</v>
       </c>
       <c r="D9" t="n">
-        <v>75.1048379283579</v>
+        <v>107.768602616842</v>
       </c>
       <c r="E9" t="n">
-        <v>1660.61713229772</v>
+        <v>1519.71608403296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2142.02693490823</v>
+        <v>2117.20049658869</v>
       </c>
       <c r="C10" t="n">
-        <v>335.659679875687</v>
+        <v>376.123827553093</v>
       </c>
       <c r="D10" t="n">
-        <v>76.5983870228886</v>
+        <v>119.970279897937</v>
       </c>
       <c r="E10" t="n">
-        <v>1639.58342781829</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2148.07414872768</v>
-      </c>
-      <c r="C11" t="n">
-        <v>339.665510666759</v>
-      </c>
-      <c r="D11" t="n">
-        <v>73.5137569619254</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1634.44322493972</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2227.25052363124</v>
-      </c>
-      <c r="C12" t="n">
-        <v>354.540919979976</v>
-      </c>
-      <c r="D12" t="n">
-        <v>70.5035492808415</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1697.2378172611</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2200.94092964056</v>
-      </c>
-      <c r="C13" t="n">
-        <v>346.296389072781</v>
-      </c>
-      <c r="D13" t="n">
-        <v>78.12119744022</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1669.79455910464</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2156.81106514741</v>
-      </c>
-      <c r="C14" t="n">
-        <v>333.913848067825</v>
-      </c>
-      <c r="D14" t="n">
-        <v>82.5971236652374</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1631.33865977203</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2174.70981214204</v>
-      </c>
-      <c r="C15" t="n">
-        <v>336.231748458023</v>
-      </c>
-      <c r="D15" t="n">
-        <v>91.2690261781828</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1641.58658543356</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2164.95443985308</v>
-      </c>
-      <c r="C16" t="n">
-        <v>335.186239126463</v>
-      </c>
-      <c r="D16" t="n">
-        <v>94.8163566201253</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1633.89583005904</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2194.31611137946</v>
-      </c>
-      <c r="C17" t="n">
-        <v>345.563342614974</v>
-      </c>
-      <c r="D17" t="n">
-        <v>108.269739460109</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1630.89239075351</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2119.09849480408</v>
-      </c>
-      <c r="C18" t="n">
-        <v>345.932324021333</v>
-      </c>
-      <c r="D18" t="n">
-        <v>102.387147898667</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1515.06220677283</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2112.87221134234</v>
-      </c>
-      <c r="C19" t="n">
-        <v>348.822593794254</v>
-      </c>
-      <c r="D19" t="n">
-        <v>107.768602616842</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1519.71608403296</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2117.20049658869</v>
-      </c>
-      <c r="C20" t="n">
-        <v>376.123827553093</v>
-      </c>
-      <c r="D20" t="n">
-        <v>119.970279897937</v>
-      </c>
-      <c r="E20" t="n">
         <v>1517.93123599813</v>
       </c>
     </row>
